--- a/data/guitar_strings_props.xlsx
+++ b/data/guitar_strings_props.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EJ43" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EJ45" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EJ46" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EJ44" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EJ45FF" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EJ46FF" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="EJ43" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="EJ45" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="EJ46" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="EJ44" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="EJ45FF" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="EJ46FF" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/guitar_strings_props.xlsx
+++ b/data/guitar_strings_props.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="EJ43" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="EJ45" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="EJ46" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="EJ44" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="EJ45FF" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="EJ46FF" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EJ43" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EJ45" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EJ46" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EJ44" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EJ45FF" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EJ46FF" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/guitar_strings_props.xlsx
+++ b/data/guitar_strings_props.xlsx
@@ -660,19 +660,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.59795278567418</v>
+        <v>23.61449426666159</v>
       </c>
       <c r="C2" t="n">
-        <v>0.510589436611871</v>
+        <v>0.499016247702294</v>
       </c>
       <c r="D2" t="n">
-        <v>48.19590557134836</v>
+        <v>48.22898853332319</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001898993474587</v>
+        <v>0.001899645122801</v>
       </c>
       <c r="F2" t="n">
-        <v>8.322699217795511</v>
+        <v>8.328412141714798</v>
       </c>
     </row>
     <row r="3">
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.77989556569852</v>
+        <v>23.84676650578297</v>
       </c>
       <c r="C3" t="n">
-        <v>0.682709681345117</v>
+        <v>0.669735083050551</v>
       </c>
       <c r="D3" t="n">
-        <v>48.55979113139705</v>
+        <v>48.69353301156595</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002192071145203</v>
+        <v>0.002195087736976</v>
       </c>
       <c r="F3" t="n">
-        <v>4.808847254778644</v>
+        <v>4.822091633683793</v>
       </c>
     </row>
     <row r="4">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.84285043541955</v>
+        <v>28.8166289008596</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6707648222634</v>
+        <v>0.641933963400083</v>
       </c>
       <c r="D4" t="n">
-        <v>58.6857008708391</v>
+        <v>58.6332578017192</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003016001565386</v>
+        <v>0.003014653675459</v>
       </c>
       <c r="F4" t="n">
-        <v>3.868465181058862</v>
+        <v>3.865008219927484</v>
       </c>
     </row>
     <row r="5">
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.35421665277997</v>
+        <v>22.52306418688367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.779988120972805</v>
+        <v>0.770141832396215</v>
       </c>
       <c r="D5" t="n">
-        <v>45.70843330555994</v>
+        <v>46.04612837376735</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001915386995334</v>
+        <v>0.001922449438888</v>
       </c>
       <c r="F5" t="n">
-        <v>7.505428396958577</v>
+        <v>7.560878692913667</v>
       </c>
     </row>
     <row r="6">
@@ -748,19 +748,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.82363284552615</v>
+        <v>23.86784155497488</v>
       </c>
       <c r="C6" t="n">
-        <v>0.75672841150098</v>
+        <v>0.722599681918588</v>
       </c>
       <c r="D6" t="n">
-        <v>48.64726569105229</v>
+        <v>48.73568310994975</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002384831121389</v>
+        <v>0.002386997377656</v>
       </c>
       <c r="F6" t="n">
-        <v>5.270653145430567</v>
+        <v>5.280232667329749</v>
       </c>
     </row>
     <row r="7">
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28.61002547760474</v>
+        <v>28.6108312921836</v>
       </c>
       <c r="C7" t="n">
-        <v>0.359102176693405</v>
+        <v>0.367454292394605</v>
       </c>
       <c r="D7" t="n">
-        <v>58.22005095520948</v>
+        <v>58.22166258436721</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003205273661325</v>
+        <v>0.003205318024707</v>
       </c>
       <c r="F7" t="n">
-        <v>3.901211339845476</v>
+        <v>3.90131933195202</v>
       </c>
     </row>
   </sheetData>
